--- a/public/file/contohXLSX.xlsx
+++ b/public/file/contohXLSX.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harun Ar - Rasyid\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Harun Ar - Rasyid\Documents\Devlopment App\penomoran-surat\public\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C71629-AD98-4992-859B-B68805B94427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD50546-756F-4189-9346-3BE01D639AB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="15150" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22305" yWindow="3150" windowWidth="14400" windowHeight="10875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -387,7 +387,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
